--- a/CTROReporting/CTROReporting/Templates/PDA Trial Processing Template.xlsx
+++ b/CTROReporting/CTROReporting/Templates/PDA Trial Processing Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panr2\Downloads\C#\CTROReporting\CTROReporting\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panr2\Downloads\CSharp\CTROReporting\CTROReporting\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57ECE274-024B-4BE5-AA69-3945F10F8219}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698B606D-01A9-4814-8CF3-C71D5C975DF3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="825" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57710" yWindow="-370" windowWidth="38620" windowHeight="21220" tabRatio="825" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Validation" sheetId="2" r:id="rId1"/>
@@ -333,7 +333,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -407,19 +406,6 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -438,6 +424,79 @@
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -615,65 +674,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2029,6 +2029,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2910,32 +2911,32 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{80D17FEB-E91B-4DCC-A833-1F1DA98DEDD4}" name="Table3783" displayName="Table3783" ref="A1:K3" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{80D17FEB-E91B-4DCC-A833-1F1DA98DEDD4}" name="Table3783" displayName="Table3783" ref="A1:K3" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:K3" xr:uid="{BE88CFEB-B086-4A3F-99EF-D1CC5C410241}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{A079B5A2-A581-4088-AC7D-E1EEC7DD63B4}" name="Ticket ID" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{791F4FE2-5148-4230-A962-EAAEB19992E1}" name="Full Name" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{A1189060-F784-410E-BB79-422B5E7BFED6}" name="Email" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{252CD80F-67C0-4226-AB36-3DCE2BE7741D}" name="Summary" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{AF709278-35E6-44AA-8877-FA6D404F6105}" name="Assigned To" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{E767A196-10B7-45B7-AEBB-A71A816082A7}" name="State" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{2DF27FBA-FAB7-4A12-9C4E-2C6D8B676379}" name="Category" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{557CA817-61E2-468D-82AF-70106A9D48AC}" name="Created Date" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{197D5663-281A-47C6-B819-088400E3FAE2}" name="Modified By" dataDxfId="8"/>
-    <tableColumn id="19" xr3:uid="{CF61E4EC-47E5-4C24-8A28-CB77DBE14CFA}" name="Modified Date" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{FF3CEE08-17C1-462E-83BE-B7DACF9C73D8}" name="Organization" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{A079B5A2-A581-4088-AC7D-E1EEC7DD63B4}" name="Ticket ID" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{791F4FE2-5148-4230-A962-EAAEB19992E1}" name="Full Name" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{A1189060-F784-410E-BB79-422B5E7BFED6}" name="Email" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{252CD80F-67C0-4226-AB36-3DCE2BE7741D}" name="Summary" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{AF709278-35E6-44AA-8877-FA6D404F6105}" name="Assigned To" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{E767A196-10B7-45B7-AEBB-A71A816082A7}" name="State" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{2DF27FBA-FAB7-4A12-9C4E-2C6D8B676379}" name="Category" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{557CA817-61E2-468D-82AF-70106A9D48AC}" name="Created Date" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{197D5663-281A-47C6-B819-088400E3FAE2}" name="Modified By" dataDxfId="10"/>
+    <tableColumn id="19" xr3:uid="{CF61E4EC-47E5-4C24-8A28-CB77DBE14CFA}" name="Modified Date" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{FF3CEE08-17C1-462E-83BE-B7DACF9C73D8}" name="Organization" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CE8ABEEC-20CD-4621-BB57-9097586F1A04}" name="Table9910144" displayName="Table9910144" ref="M1:O3" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CE8ABEEC-20CD-4621-BB57-9097586F1A04}" name="Table9910144" displayName="Table9910144" ref="M1:O3" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="M1:O3" xr:uid="{2DADD98F-CE13-46E0-AB08-90E7B43075A7}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8950176C-4ACC-40EA-B242-5DAE6ED938FF}" name="Assigned To" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{29039586-4EF9-4AC3-8F95-4DC666548106}" name="Closed Ticket" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{3F9A5322-BE2C-457D-95AE-D9057EE59187}" name="Not Closed Ticket" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{8950176C-4ACC-40EA-B242-5DAE6ED938FF}" name="Assigned To" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{29039586-4EF9-4AC3-8F95-4DC666548106}" name="Closed Ticket" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{3F9A5322-BE2C-457D-95AE-D9057EE59187}" name="Not Closed Ticket" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2945,8 +2946,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table1212" displayName="Table1212" ref="A1:B3" totalsRowShown="0">
   <autoFilter ref="A1:B3" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Team Member" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Work Time" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Team Member" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Work Time" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3256,17 +3257,17 @@
       <selection activeCell="E4" sqref="A4:XFD524"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="25.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="50.5703125" style="18" customWidth="1"/>
-    <col min="5" max="6" width="25.5703125" style="19" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" customWidth="1"/>
-    <col min="9" max="13" width="25.5703125" style="9" customWidth="1"/>
+    <col min="1" max="3" width="25.54296875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="50.54296875" style="18" customWidth="1"/>
+    <col min="5" max="6" width="25.54296875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="25.54296875" style="18" customWidth="1"/>
+    <col min="8" max="8" width="25.54296875" customWidth="1"/>
+    <col min="9" max="13" width="25.54296875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -3304,7 +3305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -3318,7 +3319,7 @@
       <c r="L2" s="21"/>
       <c r="M2" s="27"/>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -3351,26 +3352,26 @@
       <selection activeCell="N4" sqref="A4:XFD514"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="25.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="50.5703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" style="5" customWidth="1"/>
-    <col min="6" max="7" width="25.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="50.5703125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="50.5703125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="25.5703125" style="5" customWidth="1"/>
-    <col min="13" max="14" width="25.5703125" style="7" customWidth="1"/>
-    <col min="15" max="15" width="50.5703125" style="4" customWidth="1"/>
-    <col min="16" max="16" width="25.5703125" style="8" customWidth="1"/>
-    <col min="17" max="17" width="25.5703125" style="5" customWidth="1"/>
-    <col min="18" max="25" width="25.5703125" style="9" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="3" width="25.54296875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="50.54296875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="25.54296875" style="5" customWidth="1"/>
+    <col min="6" max="7" width="25.54296875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="50.54296875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="50.54296875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="25.54296875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="25.54296875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="25.54296875" style="5" customWidth="1"/>
+    <col min="13" max="14" width="25.54296875" style="7" customWidth="1"/>
+    <col min="15" max="15" width="50.54296875" style="4" customWidth="1"/>
+    <col min="16" max="16" width="25.54296875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="25.54296875" style="5" customWidth="1"/>
+    <col min="18" max="25" width="25.54296875" style="9" customWidth="1"/>
+    <col min="26" max="16384" width="9.1796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -3444,7 +3445,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="M2" s="15"/>
@@ -3459,7 +3460,7 @@
       <c r="X2" s="27"/>
       <c r="Y2" s="27"/>
     </row>
-    <row r="3" spans="1:25" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="M3" s="15"/>
@@ -3499,27 +3500,27 @@
       <selection activeCell="N4" sqref="A4:XFD124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="50.5703125" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
-    <col min="6" max="7" width="25.5703125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="50.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" customWidth="1"/>
-    <col min="12" max="13" width="25.5703125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="25.5703125" customWidth="1"/>
-    <col min="15" max="15" width="50.5703125" customWidth="1"/>
-    <col min="16" max="16" width="25.5703125" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="25.5703125" style="25" customWidth="1"/>
-    <col min="21" max="21" width="25.5703125" style="26" customWidth="1"/>
-    <col min="22" max="22" width="25.5703125" style="25" customWidth="1"/>
-    <col min="23" max="25" width="25.5703125" style="5" customWidth="1"/>
+    <col min="1" max="3" width="25.54296875" customWidth="1"/>
+    <col min="4" max="4" width="50.54296875" customWidth="1"/>
+    <col min="5" max="5" width="25.54296875" customWidth="1"/>
+    <col min="6" max="7" width="25.54296875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="50.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.54296875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.54296875" customWidth="1"/>
+    <col min="12" max="13" width="25.54296875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="25.54296875" customWidth="1"/>
+    <col min="15" max="15" width="50.54296875" customWidth="1"/>
+    <col min="16" max="16" width="25.54296875" customWidth="1"/>
+    <col min="17" max="17" width="16.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="25.54296875" style="25" customWidth="1"/>
+    <col min="21" max="21" width="25.54296875" style="26" customWidth="1"/>
+    <col min="22" max="22" width="25.54296875" style="25" customWidth="1"/>
+    <col min="23" max="25" width="25.54296875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -3593,7 +3594,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="M2" s="15"/>
@@ -3608,7 +3609,7 @@
       <c r="X2" s="29"/>
       <c r="Y2" s="29"/>
     </row>
-    <row r="3" spans="1:25" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="M3" s="15"/>
@@ -3644,25 +3645,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A15869-EE54-4F87-9734-60B62329F4BB}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="50.5703125" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
-    <col min="6" max="7" width="25.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" style="33" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" style="33" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="25.5703125" style="25" customWidth="1"/>
+    <col min="1" max="3" width="25.54296875" customWidth="1"/>
+    <col min="4" max="4" width="50.54296875" customWidth="1"/>
+    <col min="5" max="5" width="25.54296875" customWidth="1"/>
+    <col min="6" max="7" width="25.54296875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7265625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="25.7265625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.54296875" style="33" customWidth="1"/>
+    <col min="11" max="11" width="25.54296875" customWidth="1"/>
+    <col min="12" max="12" width="16.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="25.54296875" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>29</v>
       </c>
@@ -3706,7 +3707,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="32"/>
@@ -3715,7 +3716,7 @@
       <c r="N2" s="21"/>
       <c r="O2" s="21"/>
     </row>
-    <row r="3" spans="1:15" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="32"/>
@@ -3726,11 +3727,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A1048576">
-    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A3">
-    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
@@ -3744,16 +3745,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="25.5703125" customWidth="1"/>
+    <col min="1" max="2" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>27</v>
       </c>
@@ -3761,11 +3762,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24"/>
       <c r="B2" s="21"/>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24"/>
       <c r="B3" s="21"/>
     </row>
